--- a/data/case1/20/Qlm1_1.xlsx
+++ b/data/case1/20/Qlm1_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
     <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.094956318747222213</v>
+        <v>-0.04517650658601724</v>
       </c>
       <c r="B1" s="0">
-        <v>0.09465170022070879</v>
+        <v>0.044741969204245891</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.085238968443997365</v>
+        <v>-0.022640681188736522</v>
       </c>
       <c r="B2" s="0">
-        <v>0.084458551743750832</v>
+        <v>0.020824303131433908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.03474660318619982</v>
+        <v>-0.014767646447232607</v>
       </c>
       <c r="B3" s="0">
-        <v>0.03461136633961992</v>
+        <v>0.014475359423800072</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.026611366390270064</v>
+        <v>-0.0064753595048561152</v>
       </c>
       <c r="B4" s="0">
-        <v>0.026504884717867938</v>
+        <v>0.006217954106388035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.02350488474088408</v>
+        <v>-0.0032179541375114695</v>
       </c>
       <c r="B5" s="0">
-        <v>0.023167436832740584</v>
+        <v>0.0023530804366140856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0082679997077228506</v>
+        <v>-0.016367954639310511</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0081454414256381114</v>
+        <v>0.016354117041732508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0018545585114431162</v>
+        <v>-0.0063541171392071938</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0018726113201150696</v>
+        <v>0.0063520800360894469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.011872611257571108</v>
+        <v>0.0036479198662058288</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.011889450397406076</v>
+        <v>-0.0036957919950784124</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.013889450381920909</v>
+        <v>0.0056957919787192779</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.013902102040570519</v>
+        <v>-0.0057645928157392667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.015902102027043341</v>
+        <v>-0.0091971876445029466</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.015901995852786399</v>
+        <v>0.0091973688524564778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.018901995833719987</v>
+        <v>-0.02437861539790287</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.018904110889859105</v>
+        <v>0.024353703319777154</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.022404110868608829</v>
+        <v>-0.020853703349974495</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.022446798313620953</v>
+        <v>0.020664720994435726</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.017642260809165755</v>
+        <v>-0.01716472102884925</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.017798737631269823</v>
+        <v>0.017079033941992172</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.025798737589725285</v>
+        <v>-0.009079034021799437</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.025885326566014832</v>
+        <v>0.0090514061368152099</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080506468940217957</v>
+        <v>-0.008051406147587592</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080329676299113473</v>
+        <v>0.0080335996423288591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060329676362336215</v>
+        <v>-0.0060335996636164957</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032694110465634</v>
+        <v>0.0060030838490496841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032694178453454</v>
+        <v>-0.0040030838709324001</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999816977549</v>
+        <v>0.0039999999579771739</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0034127318111600857</v>
+        <v>-0.016101288075489606</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0033286594809780468</v>
+        <v>0.016090841400568934</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.00067134049575656718</v>
+        <v>-0.012090841440544065</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0012870062556697981</v>
+        <v>0.0120159121392307</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0052870062322956102</v>
+        <v>-0.0080159121824365798</v>
       </c>
       <c r="B20" s="0">
-        <v>-0.0054604009205281301</v>
+        <v>0.0080055533491201203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.0094604008973036002</v>
+        <v>-0.0040055533928544662</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0097287569206283564</v>
+        <v>0.0039999999558339994</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045711948584679973</v>
+        <v>-0.045715846617570222</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045498702345735609</v>
+        <v>0.045501785862100519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040498702380530105</v>
+        <v>-0.04050178591673248</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040098937673637813</v>
+        <v>0.040099417589376074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020098937796969807</v>
+        <v>-0.020099417799464447</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999874873886</v>
+        <v>0.019999999786656453</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.01289943714315811</v>
+        <v>0.016014874183715833</v>
       </c>
       <c r="B25" s="0">
-        <v>0.012896460900572393</v>
+        <v>-0.016113582268921789</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.010396460921553441</v>
+        <v>-0.058574004994271789</v>
       </c>
       <c r="B26" s="0">
-        <v>0.010394332446537646</v>
+        <v>0.058507101078005164</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0078943324676754578</v>
+        <v>-0.056007101103705992</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0078847271162176824</v>
+        <v>0.055621404317725442</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0058847271351929464</v>
+        <v>-0.053621404348832336</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0058827416237239305</v>
+        <v>0.053372240176157604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.0011172583287004656</v>
+        <v>-0.046372240263723441</v>
       </c>
       <c r="B29" s="0">
-        <v>-0.0011178073338227179</v>
+        <v>0.0463117223654681</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.061117806986565437</v>
+        <v>0.013688277017059658</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.061402195515663394</v>
+        <v>-0.013718710271332757</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.046525516287118762</v>
+        <v>0.02071871018267224</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.046601115430267015</v>
+        <v>-0.02072725409015419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040011821346048748</v>
+        <v>-0.0040008293136999384</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999769335659</v>
+        <v>0.0039999999422253296</v>
       </c>
     </row>
   </sheetData>
